--- a/Variable_Names.xlsx
+++ b/Variable_Names.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iwan\Documents\GitHub\mastcalculation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iwan\Documents\GitHub\Sailpack-Variables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Standing Rigging" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="600">
   <si>
     <t>Standing Rigging</t>
   </si>
@@ -314,9 +314,6 @@
   </si>
   <si>
     <t>FSI Data Variable Names</t>
-  </si>
-  <si>
-    <t>Placeholder</t>
   </si>
   <si>
     <t>CABLE_MIZZ_RUNNER</t>
@@ -2783,7 +2780,7 @@
         <xdr:cNvPr id="3" name="irc_mi" descr="Bildergebnis für carbo-link">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2839,7 +2836,7 @@
         <xdr:cNvPr id="7" name="irc_mi" descr="Bildergebnis für carbo-link">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2895,7 +2892,7 @@
         <xdr:cNvPr id="8" name="irc_mi" descr="Bildergebnis für carbo-link">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2956,7 +2953,7 @@
         <xdr:cNvPr id="2" name="irc_mi" descr="Bildergebnis für carbo-link">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3012,7 +3009,7 @@
         <xdr:cNvPr id="3" name="irc_mi" descr="Bildergebnis für carbo-link">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3068,7 +3065,7 @@
         <xdr:cNvPr id="4" name="irc_mi" descr="Bildergebnis für carbo-link">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3124,7 +3121,7 @@
         <xdr:cNvPr id="5" name="irc_mi" descr="Bildergebnis für carbo-link">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3185,7 +3182,7 @@
         <xdr:cNvPr id="2" name="irc_mi" descr="Bildergebnis für carbo-link">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3241,7 +3238,7 @@
         <xdr:cNvPr id="3" name="irc_mi" descr="Bildergebnis für carbo-link">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3297,7 +3294,7 @@
         <xdr:cNvPr id="4" name="irc_mi" descr="Bildergebnis für carbo-link">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3358,7 +3355,7 @@
         <xdr:cNvPr id="2" name="irc_mi" descr="Bildergebnis für carbo-link">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3414,7 +3411,7 @@
         <xdr:cNvPr id="3" name="irc_mi" descr="Bildergebnis für carbo-link">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3470,7 +3467,7 @@
         <xdr:cNvPr id="4" name="irc_mi" descr="Bildergebnis für carbo-link">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3531,7 +3528,7 @@
         <xdr:cNvPr id="2" name="irc_mi" descr="Bildergebnis für carbo-link">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3587,7 +3584,7 @@
         <xdr:cNvPr id="3" name="irc_mi" descr="Bildergebnis für carbo-link">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3643,7 +3640,7 @@
         <xdr:cNvPr id="4" name="irc_mi" descr="Bildergebnis für carbo-link">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3704,7 +3701,7 @@
         <xdr:cNvPr id="2" name="irc_mi" descr="Bildergebnis für carbo-link">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3760,7 +3757,7 @@
         <xdr:cNvPr id="3" name="irc_mi" descr="Bildergebnis für carbo-link">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3816,7 +3813,7 @@
         <xdr:cNvPr id="4" name="irc_mi" descr="Bildergebnis für carbo-link">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3877,7 +3874,7 @@
         <xdr:cNvPr id="2" name="irc_mi" descr="Bildergebnis für carbo-link">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3933,7 +3930,7 @@
         <xdr:cNvPr id="3" name="irc_mi" descr="Bildergebnis für carbo-link">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3989,7 +3986,7 @@
         <xdr:cNvPr id="4" name="irc_mi" descr="Bildergebnis für carbo-link">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4050,7 +4047,7 @@
         <xdr:cNvPr id="2" name="irc_mi" descr="Bildergebnis für carbo-link">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4106,7 +4103,7 @@
         <xdr:cNvPr id="3" name="irc_mi" descr="Bildergebnis für carbo-link">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4162,7 +4159,7 @@
         <xdr:cNvPr id="4" name="irc_mi" descr="Bildergebnis für carbo-link">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4614,7 +4611,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="M3" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -4711,10 +4708,10 @@
       <c r="K6" s="12"/>
       <c r="L6" s="8"/>
       <c r="M6" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
@@ -4742,10 +4739,10 @@
       <c r="K7" s="12"/>
       <c r="L7" s="13"/>
       <c r="M7" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
@@ -4773,10 +4770,10 @@
       <c r="K8" s="12"/>
       <c r="L8" s="14"/>
       <c r="M8" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
@@ -4804,10 +4801,10 @@
       <c r="K9" s="12"/>
       <c r="L9" s="8"/>
       <c r="M9" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
@@ -4835,10 +4832,10 @@
       <c r="K10" s="12"/>
       <c r="L10" s="13"/>
       <c r="M10" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
@@ -4866,10 +4863,10 @@
       <c r="K11" s="12"/>
       <c r="L11" s="14"/>
       <c r="M11" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
@@ -4897,10 +4894,10 @@
       <c r="K12" s="12"/>
       <c r="L12" s="8"/>
       <c r="M12" s="9" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
@@ -4928,10 +4925,10 @@
       <c r="K13" s="12"/>
       <c r="L13" s="13"/>
       <c r="M13" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
@@ -4959,10 +4956,10 @@
       <c r="K14" s="12"/>
       <c r="L14" s="14"/>
       <c r="M14" s="9" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
@@ -4990,10 +4987,10 @@
       <c r="K15" s="12"/>
       <c r="L15" s="8"/>
       <c r="M15" s="9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
@@ -5021,10 +5018,10 @@
       <c r="K16" s="12"/>
       <c r="L16" s="13"/>
       <c r="M16" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
@@ -5052,10 +5049,10 @@
       <c r="K17" s="12"/>
       <c r="L17" s="14"/>
       <c r="M17" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
@@ -5083,10 +5080,10 @@
       <c r="K18" s="12"/>
       <c r="L18" s="8"/>
       <c r="M18" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
@@ -5114,10 +5111,10 @@
       <c r="K19" s="12"/>
       <c r="L19" s="13"/>
       <c r="M19" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
@@ -5145,10 +5142,10 @@
       <c r="K20" s="12"/>
       <c r="L20" s="14"/>
       <c r="M20" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
@@ -5176,10 +5173,10 @@
       <c r="K21" s="12"/>
       <c r="L21" s="8"/>
       <c r="M21" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
@@ -5203,16 +5200,16 @@
         <v>51</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="13"/>
       <c r="M22" s="9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
@@ -5236,16 +5233,16 @@
         <v>50</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="14"/>
       <c r="M23" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
@@ -5253,34 +5250,34 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="8"/>
       <c r="G24" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="8"/>
       <c r="M24" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N24" s="12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
@@ -5288,32 +5285,32 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
       <c r="G25" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="13"/>
       <c r="M25" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="N25" s="12" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
@@ -5321,30 +5318,30 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="14"/>
       <c r="G26" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="14"/>
       <c r="M26" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="N26" s="12" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="O26" s="12"/>
       <c r="P26" s="12"/>
@@ -5352,30 +5349,30 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="8"/>
       <c r="G27" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="8"/>
       <c r="M27" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="O27" s="12"/>
       <c r="P27" s="12"/>
@@ -5383,30 +5380,30 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="13"/>
       <c r="G28" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
       <c r="L28" s="13"/>
       <c r="M28" s="9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="N28" s="12" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="O28" s="12"/>
       <c r="P28" s="12"/>
@@ -5414,30 +5411,30 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="14"/>
       <c r="G29" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="14"/>
       <c r="M29" s="9" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="N29" s="12" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
@@ -5445,30 +5442,30 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="8"/>
       <c r="G30" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
       <c r="L30" s="8"/>
       <c r="M30" s="9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="N30" s="12" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="O30" s="12"/>
       <c r="P30" s="12"/>
@@ -5476,30 +5473,30 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="13"/>
       <c r="G31" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
       <c r="L31" s="13"/>
       <c r="M31" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="N31" s="12" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="O31" s="12"/>
       <c r="P31" s="12"/>
@@ -5519,10 +5516,10 @@
       <c r="K32" s="12"/>
       <c r="L32" s="14"/>
       <c r="M32" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="N32" s="12" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="O32" s="12"/>
       <c r="P32" s="12"/>
@@ -5542,10 +5539,10 @@
       <c r="K33" s="12"/>
       <c r="L33" s="8"/>
       <c r="M33" s="9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="N33" s="12" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="O33" s="12"/>
       <c r="P33" s="12"/>
@@ -5565,10 +5562,10 @@
       <c r="K34" s="12"/>
       <c r="L34" s="13"/>
       <c r="M34" s="9" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="N34" s="12" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O34" s="12"/>
       <c r="P34" s="12"/>
@@ -5588,10 +5585,10 @@
       <c r="K35" s="12"/>
       <c r="L35" s="14"/>
       <c r="M35" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="N35" s="12" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="O35" s="12"/>
       <c r="P35" s="12"/>
@@ -5611,10 +5608,10 @@
       <c r="K36" s="12"/>
       <c r="L36" s="8"/>
       <c r="M36" s="9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="N36" s="12" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="O36" s="12"/>
       <c r="P36" s="12"/>
@@ -5634,10 +5631,10 @@
       <c r="K37" s="12"/>
       <c r="L37" s="13"/>
       <c r="M37" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="N37" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="O37" s="12"/>
       <c r="P37" s="12"/>
@@ -6059,28 +6056,28 @@
     </row>
     <row r="3" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="G3" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="M3" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="S3" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -6179,17 +6176,17 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="8"/>
       <c r="G6" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -6197,17 +6194,17 @@
       <c r="K6" s="12"/>
       <c r="L6" s="8"/>
       <c r="M6" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="8"/>
       <c r="S6" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
@@ -6216,17 +6213,17 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="13"/>
       <c r="G7" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -6234,17 +6231,17 @@
       <c r="K7" s="12"/>
       <c r="L7" s="13"/>
       <c r="M7" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
       <c r="R7" s="13"/>
       <c r="S7" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
@@ -6253,17 +6250,17 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="14"/>
       <c r="G8" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -6271,7 +6268,7 @@
       <c r="K8" s="12"/>
       <c r="L8" s="14"/>
       <c r="M8" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
@@ -6279,7 +6276,7 @@
       <c r="Q8" s="12"/>
       <c r="R8" s="14"/>
       <c r="S8" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
@@ -6288,17 +6285,17 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="8"/>
       <c r="G9" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -6306,7 +6303,7 @@
       <c r="K9" s="12"/>
       <c r="L9" s="8"/>
       <c r="M9" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
@@ -6314,7 +6311,7 @@
       <c r="Q9" s="12"/>
       <c r="R9" s="8"/>
       <c r="S9" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
@@ -6323,17 +6320,17 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="13"/>
       <c r="G10" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -6341,7 +6338,7 @@
       <c r="K10" s="12"/>
       <c r="L10" s="13"/>
       <c r="M10" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
@@ -6349,7 +6346,7 @@
       <c r="Q10" s="12"/>
       <c r="R10" s="13"/>
       <c r="S10" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
@@ -6358,17 +6355,17 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="14"/>
       <c r="G11" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -6376,7 +6373,7 @@
       <c r="K11" s="12"/>
       <c r="L11" s="14"/>
       <c r="M11" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
@@ -6384,7 +6381,7 @@
       <c r="Q11" s="12"/>
       <c r="R11" s="14"/>
       <c r="S11" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
@@ -6393,17 +6390,17 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="8"/>
       <c r="G12" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
@@ -6411,7 +6408,7 @@
       <c r="K12" s="12"/>
       <c r="L12" s="8"/>
       <c r="M12" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
@@ -6419,7 +6416,7 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="8"/>
       <c r="S12" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
@@ -6434,7 +6431,7 @@
       <c r="E13" s="12"/>
       <c r="F13" s="13"/>
       <c r="G13" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
@@ -6442,7 +6439,7 @@
       <c r="K13" s="12"/>
       <c r="L13" s="13"/>
       <c r="M13" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
@@ -6450,7 +6447,7 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="13"/>
       <c r="S13" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
@@ -6465,7 +6462,7 @@
       <c r="E14" s="12"/>
       <c r="F14" s="14"/>
       <c r="G14" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -6473,7 +6470,7 @@
       <c r="K14" s="12"/>
       <c r="L14" s="14"/>
       <c r="M14" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
@@ -6494,7 +6491,7 @@
       <c r="E15" s="12"/>
       <c r="F15" s="8"/>
       <c r="G15" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
@@ -6502,7 +6499,7 @@
       <c r="K15" s="12"/>
       <c r="L15" s="8"/>
       <c r="M15" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
@@ -6523,7 +6520,7 @@
       <c r="E16" s="12"/>
       <c r="F16" s="13"/>
       <c r="G16" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
@@ -6531,7 +6528,7 @@
       <c r="K16" s="12"/>
       <c r="L16" s="13"/>
       <c r="M16" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
@@ -6552,7 +6549,7 @@
       <c r="E17" s="12"/>
       <c r="F17" s="14"/>
       <c r="G17" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
@@ -6560,7 +6557,7 @@
       <c r="K17" s="12"/>
       <c r="L17" s="14"/>
       <c r="M17" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
@@ -6581,7 +6578,7 @@
       <c r="E18" s="12"/>
       <c r="F18" s="8"/>
       <c r="G18" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
@@ -6589,7 +6586,7 @@
       <c r="K18" s="12"/>
       <c r="L18" s="8"/>
       <c r="M18" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
@@ -6610,7 +6607,7 @@
       <c r="E19" s="12"/>
       <c r="F19" s="13"/>
       <c r="G19" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
@@ -6618,7 +6615,7 @@
       <c r="K19" s="12"/>
       <c r="L19" s="13"/>
       <c r="M19" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
@@ -6639,7 +6636,7 @@
       <c r="E20" s="12"/>
       <c r="F20" s="14"/>
       <c r="G20" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
@@ -6666,7 +6663,7 @@
       <c r="E21" s="12"/>
       <c r="F21" s="8"/>
       <c r="G21" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
@@ -6693,7 +6690,7 @@
       <c r="E22" s="12"/>
       <c r="F22" s="13"/>
       <c r="G22" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
@@ -6720,7 +6717,7 @@
       <c r="E23" s="12"/>
       <c r="F23" s="14"/>
       <c r="G23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
@@ -6747,7 +6744,7 @@
       <c r="E24" s="12"/>
       <c r="F24" s="8"/>
       <c r="G24" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
@@ -6774,7 +6771,7 @@
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
       <c r="G25" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
@@ -7536,7 +7533,7 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D1" s="18"/>
       <c r="E1" s="3"/>
@@ -7582,21 +7579,21 @@
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="G3" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="M3" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -7673,27 +7670,27 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="8"/>
       <c r="G6" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
       <c r="L6" s="8"/>
       <c r="M6" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -7702,17 +7699,17 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="13"/>
       <c r="G7" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -7720,7 +7717,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="13"/>
       <c r="M7" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -7729,7 +7726,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -7737,7 +7734,7 @@
       <c r="E8" s="12"/>
       <c r="F8" s="14"/>
       <c r="G8" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -7745,7 +7742,7 @@
       <c r="K8" s="12"/>
       <c r="L8" s="14"/>
       <c r="M8" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
@@ -7754,7 +7751,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -7762,7 +7759,7 @@
       <c r="E9" s="12"/>
       <c r="F9" s="8"/>
       <c r="G9" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -7770,7 +7767,7 @@
       <c r="K9" s="12"/>
       <c r="L9" s="8"/>
       <c r="M9" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
@@ -7779,7 +7776,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -7787,7 +7784,7 @@
       <c r="E10" s="12"/>
       <c r="F10" s="13"/>
       <c r="G10" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -7795,7 +7792,7 @@
       <c r="K10" s="12"/>
       <c r="L10" s="13"/>
       <c r="M10" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
@@ -7804,7 +7801,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -7812,7 +7809,7 @@
       <c r="E11" s="12"/>
       <c r="F11" s="14"/>
       <c r="G11" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -7820,7 +7817,7 @@
       <c r="K11" s="12"/>
       <c r="L11" s="14"/>
       <c r="M11" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
@@ -7829,7 +7826,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -7837,7 +7834,7 @@
       <c r="E12" s="12"/>
       <c r="F12" s="8"/>
       <c r="G12" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
@@ -7845,7 +7842,7 @@
       <c r="K12" s="12"/>
       <c r="L12" s="8"/>
       <c r="M12" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
@@ -7854,7 +7851,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -7862,7 +7859,7 @@
       <c r="E13" s="12"/>
       <c r="F13" s="13"/>
       <c r="G13" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
@@ -7870,7 +7867,7 @@
       <c r="K13" s="12"/>
       <c r="L13" s="13"/>
       <c r="M13" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
@@ -7879,7 +7876,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -7887,7 +7884,7 @@
       <c r="E14" s="12"/>
       <c r="F14" s="14"/>
       <c r="G14" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -7895,7 +7892,7 @@
       <c r="K14" s="12"/>
       <c r="L14" s="14"/>
       <c r="M14" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
@@ -7904,7 +7901,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -7912,7 +7909,7 @@
       <c r="E15" s="12"/>
       <c r="F15" s="8"/>
       <c r="G15" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
@@ -7920,7 +7917,7 @@
       <c r="K15" s="12"/>
       <c r="L15" s="8"/>
       <c r="M15" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
@@ -7929,7 +7926,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -7937,7 +7934,7 @@
       <c r="E16" s="12"/>
       <c r="F16" s="13"/>
       <c r="G16" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
@@ -7945,7 +7942,7 @@
       <c r="K16" s="12"/>
       <c r="L16" s="13"/>
       <c r="M16" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
@@ -7954,7 +7951,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -7962,7 +7959,7 @@
       <c r="E17" s="12"/>
       <c r="F17" s="14"/>
       <c r="G17" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
@@ -7970,7 +7967,7 @@
       <c r="K17" s="12"/>
       <c r="L17" s="14"/>
       <c r="M17" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
@@ -7979,7 +7976,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -7993,7 +7990,7 @@
       <c r="K18" s="12"/>
       <c r="L18" s="8"/>
       <c r="M18" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
@@ -8014,7 +8011,7 @@
       <c r="K19" s="12"/>
       <c r="L19" s="13"/>
       <c r="M19" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
@@ -8035,7 +8032,7 @@
       <c r="K20" s="12"/>
       <c r="L20" s="14"/>
       <c r="M20" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
@@ -8056,7 +8053,7 @@
       <c r="K21" s="12"/>
       <c r="L21" s="8"/>
       <c r="M21" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
@@ -8077,7 +8074,7 @@
       <c r="K22" s="12"/>
       <c r="L22" s="13"/>
       <c r="M22" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
@@ -8740,7 +8737,7 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D1" s="18"/>
       <c r="E1" s="3"/>
@@ -8786,21 +8783,21 @@
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="G3" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="M3" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -8877,7 +8874,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -8885,7 +8882,7 @@
       <c r="E6" s="12"/>
       <c r="F6" s="8"/>
       <c r="G6" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -8893,7 +8890,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="8"/>
       <c r="M6" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -8902,7 +8899,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -8910,7 +8907,7 @@
       <c r="E7" s="12"/>
       <c r="F7" s="13"/>
       <c r="G7" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -8918,7 +8915,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="13"/>
       <c r="M7" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -8927,7 +8924,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -8935,7 +8932,7 @@
       <c r="E8" s="12"/>
       <c r="F8" s="14"/>
       <c r="G8" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -8943,7 +8940,7 @@
       <c r="K8" s="12"/>
       <c r="L8" s="14"/>
       <c r="M8" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
@@ -8952,7 +8949,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -8960,7 +8957,7 @@
       <c r="E9" s="12"/>
       <c r="F9" s="8"/>
       <c r="G9" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -8968,7 +8965,7 @@
       <c r="K9" s="12"/>
       <c r="L9" s="8"/>
       <c r="M9" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
@@ -8977,7 +8974,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -8985,7 +8982,7 @@
       <c r="E10" s="12"/>
       <c r="F10" s="13"/>
       <c r="G10" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -8993,7 +8990,7 @@
       <c r="K10" s="12"/>
       <c r="L10" s="13"/>
       <c r="M10" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
@@ -9002,7 +8999,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -9010,7 +9007,7 @@
       <c r="E11" s="12"/>
       <c r="F11" s="14"/>
       <c r="G11" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -9018,7 +9015,7 @@
       <c r="K11" s="12"/>
       <c r="L11" s="14"/>
       <c r="M11" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
@@ -9027,7 +9024,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -9035,7 +9032,7 @@
       <c r="E12" s="12"/>
       <c r="F12" s="8"/>
       <c r="G12" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
@@ -9043,7 +9040,7 @@
       <c r="K12" s="12"/>
       <c r="L12" s="8"/>
       <c r="M12" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
@@ -9052,7 +9049,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -9060,7 +9057,7 @@
       <c r="E13" s="12"/>
       <c r="F13" s="13"/>
       <c r="G13" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
@@ -9068,7 +9065,7 @@
       <c r="K13" s="12"/>
       <c r="L13" s="13"/>
       <c r="M13" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
@@ -9077,7 +9074,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -9085,7 +9082,7 @@
       <c r="E14" s="12"/>
       <c r="F14" s="14"/>
       <c r="G14" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -9100,7 +9097,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -9108,7 +9105,7 @@
       <c r="E15" s="12"/>
       <c r="F15" s="8"/>
       <c r="G15" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
@@ -9123,7 +9120,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -9131,7 +9128,7 @@
       <c r="E16" s="12"/>
       <c r="F16" s="13"/>
       <c r="G16" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
@@ -9146,7 +9143,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -9154,7 +9151,7 @@
       <c r="E17" s="12"/>
       <c r="F17" s="14"/>
       <c r="G17" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
@@ -9169,7 +9166,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -9177,7 +9174,7 @@
       <c r="E18" s="12"/>
       <c r="F18" s="8"/>
       <c r="G18" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
@@ -9192,7 +9189,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -9200,7 +9197,7 @@
       <c r="E19" s="12"/>
       <c r="F19" s="13"/>
       <c r="G19" s="9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
@@ -9215,7 +9212,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -9223,7 +9220,7 @@
       <c r="E20" s="12"/>
       <c r="F20" s="14"/>
       <c r="G20" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
@@ -9238,7 +9235,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -9246,7 +9243,7 @@
       <c r="E21" s="12"/>
       <c r="F21" s="8"/>
       <c r="G21" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
@@ -9261,7 +9258,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -9269,7 +9266,7 @@
       <c r="E22" s="12"/>
       <c r="F22" s="13"/>
       <c r="G22" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
@@ -9284,7 +9281,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -9292,7 +9289,7 @@
       <c r="E23" s="12"/>
       <c r="F23" s="14"/>
       <c r="G23" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
@@ -9307,7 +9304,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -9315,7 +9312,7 @@
       <c r="E24" s="12"/>
       <c r="F24" s="8"/>
       <c r="G24" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
@@ -9330,7 +9327,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -9338,7 +9335,7 @@
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
       <c r="G25" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
@@ -9353,7 +9350,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -9361,7 +9358,7 @@
       <c r="E26" s="12"/>
       <c r="F26" s="14"/>
       <c r="G26" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
@@ -9376,7 +9373,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -9384,7 +9381,7 @@
       <c r="E27" s="12"/>
       <c r="F27" s="8"/>
       <c r="G27" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
@@ -9399,7 +9396,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -9407,7 +9404,7 @@
       <c r="E28" s="12"/>
       <c r="F28" s="13"/>
       <c r="G28" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
@@ -9422,7 +9419,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -9430,7 +9427,7 @@
       <c r="E29" s="12"/>
       <c r="F29" s="14"/>
       <c r="G29" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
@@ -9445,7 +9442,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -9453,7 +9450,7 @@
       <c r="E30" s="12"/>
       <c r="F30" s="8"/>
       <c r="G30" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
@@ -9468,7 +9465,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -9476,7 +9473,7 @@
       <c r="E31" s="12"/>
       <c r="F31" s="13"/>
       <c r="G31" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -9491,7 +9488,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -9499,7 +9496,7 @@
       <c r="E32" s="12"/>
       <c r="F32" s="14"/>
       <c r="G32" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
@@ -9514,7 +9511,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -9522,7 +9519,7 @@
       <c r="E33" s="12"/>
       <c r="F33" s="8"/>
       <c r="G33" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
@@ -9537,7 +9534,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -9545,7 +9542,7 @@
       <c r="E34" s="12"/>
       <c r="F34" s="13"/>
       <c r="G34" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
@@ -9560,7 +9557,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -9568,7 +9565,7 @@
       <c r="E35" s="12"/>
       <c r="F35" s="14"/>
       <c r="G35" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
@@ -9583,7 +9580,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -9591,7 +9588,7 @@
       <c r="E36" s="12"/>
       <c r="F36" s="8"/>
       <c r="G36" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
@@ -9606,7 +9603,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -9614,7 +9611,7 @@
       <c r="E37" s="12"/>
       <c r="F37" s="13"/>
       <c r="G37" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
@@ -9629,7 +9626,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -9637,7 +9634,7 @@
       <c r="E38" s="12"/>
       <c r="F38" s="14"/>
       <c r="G38" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
@@ -9652,7 +9649,7 @@
     </row>
     <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -9660,7 +9657,7 @@
       <c r="E39" s="12"/>
       <c r="F39" s="8"/>
       <c r="G39" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
@@ -9675,7 +9672,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -9683,7 +9680,7 @@
       <c r="E40" s="12"/>
       <c r="F40" s="8"/>
       <c r="G40" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
@@ -9698,7 +9695,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -9706,7 +9703,7 @@
       <c r="E41" s="12"/>
       <c r="F41" s="8"/>
       <c r="G41" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
@@ -9721,7 +9718,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -9729,7 +9726,7 @@
       <c r="E42" s="12"/>
       <c r="F42" s="8"/>
       <c r="G42" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
@@ -9750,7 +9747,7 @@
       <c r="E43" s="12"/>
       <c r="F43" s="15"/>
       <c r="G43" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
@@ -9771,7 +9768,7 @@
       <c r="E44" s="12"/>
       <c r="F44" s="8"/>
       <c r="G44" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
@@ -9792,7 +9789,7 @@
       <c r="E45" s="12"/>
       <c r="F45" s="8"/>
       <c r="G45" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
@@ -9813,7 +9810,7 @@
       <c r="E46" s="12"/>
       <c r="F46"/>
       <c r="G46" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
@@ -9834,7 +9831,7 @@
       <c r="E47" s="12"/>
       <c r="F47"/>
       <c r="G47" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
@@ -9855,7 +9852,7 @@
       <c r="E48" s="12"/>
       <c r="F48"/>
       <c r="G48" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
@@ -9876,7 +9873,7 @@
       <c r="E49" s="12"/>
       <c r="F49"/>
       <c r="G49" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
@@ -9897,7 +9894,7 @@
       <c r="E50" s="12"/>
       <c r="F50"/>
       <c r="G50" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
@@ -9918,7 +9915,7 @@
       <c r="E51" s="12"/>
       <c r="F51"/>
       <c r="G51" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
@@ -10212,7 +10209,7 @@
   <dimension ref="A1:Q152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10231,7 +10228,7 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D1" s="18"/>
       <c r="E1" s="3"/>
@@ -10291,7 +10288,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="M3" s="4" t="s">
-        <v>82</v>
+        <v>198</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -10368,7 +10365,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -10376,7 +10373,7 @@
       <c r="E6" s="12"/>
       <c r="F6" s="8"/>
       <c r="G6" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -10391,7 +10388,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -10399,7 +10396,7 @@
       <c r="E7" s="12"/>
       <c r="F7" s="13"/>
       <c r="G7" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -10414,7 +10411,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -10422,7 +10419,7 @@
       <c r="E8" s="12"/>
       <c r="F8" s="14"/>
       <c r="G8" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -10437,7 +10434,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -10445,7 +10442,7 @@
       <c r="E9" s="12"/>
       <c r="F9" s="8"/>
       <c r="G9" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -11341,7 +11338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
@@ -11361,7 +11358,7 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D1" s="18"/>
       <c r="E1" s="3"/>
@@ -11421,7 +11418,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="M3" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -11498,7 +11495,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>2</v>
@@ -11508,7 +11505,7 @@
       <c r="E6" s="12"/>
       <c r="F6" s="8"/>
       <c r="G6" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -11516,7 +11513,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="8"/>
       <c r="M6" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -11525,27 +11522,27 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="13"/>
       <c r="G7" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="13"/>
       <c r="M7" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -11554,27 +11551,27 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="14"/>
       <c r="G8" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="14"/>
       <c r="M8" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
@@ -11583,27 +11580,27 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="8"/>
       <c r="G9" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="8"/>
       <c r="M9" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
@@ -11612,27 +11609,27 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="13"/>
       <c r="G10" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
       <c r="L10" s="13"/>
       <c r="M10" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
@@ -11641,27 +11638,27 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="14"/>
       <c r="G11" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="14"/>
       <c r="M11" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
@@ -11670,27 +11667,27 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="8"/>
       <c r="G12" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="8"/>
       <c r="M12" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
@@ -11699,27 +11696,27 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="13"/>
       <c r="G13" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="13"/>
       <c r="M13" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
@@ -11728,27 +11725,27 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="14"/>
       <c r="G14" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="14"/>
       <c r="M14" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
@@ -11757,7 +11754,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -11765,7 +11762,7 @@
       <c r="E15" s="12"/>
       <c r="F15" s="8"/>
       <c r="G15" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
@@ -11773,7 +11770,7 @@
       <c r="K15" s="12"/>
       <c r="L15" s="8"/>
       <c r="M15" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
@@ -11782,7 +11779,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -11790,7 +11787,7 @@
       <c r="E16" s="12"/>
       <c r="F16" s="13"/>
       <c r="G16" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
@@ -11798,7 +11795,7 @@
       <c r="K16" s="12"/>
       <c r="L16" s="13"/>
       <c r="M16" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
@@ -11807,7 +11804,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -11815,7 +11812,7 @@
       <c r="E17" s="12"/>
       <c r="F17" s="14"/>
       <c r="G17" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
@@ -11823,7 +11820,7 @@
       <c r="K17" s="12"/>
       <c r="L17" s="14"/>
       <c r="M17" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
@@ -11832,7 +11829,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -11840,7 +11837,7 @@
       <c r="E18" s="12"/>
       <c r="F18" s="8"/>
       <c r="G18" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
@@ -11848,7 +11845,7 @@
       <c r="K18" s="12"/>
       <c r="L18" s="8"/>
       <c r="M18" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
@@ -11857,27 +11854,27 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="13"/>
       <c r="G19" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="13"/>
       <c r="M19" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
@@ -11886,27 +11883,27 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="14"/>
       <c r="G20" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="14"/>
       <c r="M20" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
@@ -11915,27 +11912,27 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="8"/>
       <c r="G21" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="8"/>
       <c r="M21" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
@@ -11944,27 +11941,27 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="13"/>
       <c r="G22" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="13"/>
       <c r="M22" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
@@ -11973,7 +11970,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -11981,7 +11978,7 @@
       <c r="E23" s="12"/>
       <c r="F23" s="14"/>
       <c r="G23" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
@@ -11989,7 +11986,7 @@
       <c r="K23" s="12"/>
       <c r="L23" s="14"/>
       <c r="M23" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
@@ -11998,7 +11995,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -12006,7 +12003,7 @@
       <c r="E24" s="12"/>
       <c r="F24" s="8"/>
       <c r="G24" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
@@ -12014,7 +12011,7 @@
       <c r="K24" s="12"/>
       <c r="L24" s="8"/>
       <c r="M24" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N24" s="12"/>
       <c r="O24" s="12"/>
@@ -12023,7 +12020,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -12031,7 +12028,7 @@
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
       <c r="G25" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
@@ -12039,7 +12036,7 @@
       <c r="K25" s="12"/>
       <c r="L25" s="13"/>
       <c r="M25" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
@@ -12048,7 +12045,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -12062,7 +12059,7 @@
       <c r="K26" s="12"/>
       <c r="L26" s="14"/>
       <c r="M26" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
@@ -12071,7 +12068,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -12085,7 +12082,7 @@
       <c r="K27" s="12"/>
       <c r="L27" s="8"/>
       <c r="M27" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
@@ -12094,7 +12091,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -12108,7 +12105,7 @@
       <c r="K28" s="12"/>
       <c r="L28" s="13"/>
       <c r="M28" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
@@ -12117,7 +12114,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -12131,7 +12128,7 @@
       <c r="K29" s="12"/>
       <c r="L29" s="14"/>
       <c r="M29" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
@@ -12140,7 +12137,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -12154,7 +12151,7 @@
       <c r="K30" s="12"/>
       <c r="L30" s="8"/>
       <c r="M30" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N30" s="12"/>
       <c r="O30" s="12"/>
@@ -12163,7 +12160,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -12177,7 +12174,7 @@
       <c r="K31" s="12"/>
       <c r="L31" s="13"/>
       <c r="M31" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
@@ -12186,7 +12183,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -12200,7 +12197,7 @@
       <c r="K32" s="12"/>
       <c r="L32" s="14"/>
       <c r="M32" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N32" s="12"/>
       <c r="O32" s="12"/>
@@ -12209,7 +12206,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -12223,7 +12220,7 @@
       <c r="K33" s="12"/>
       <c r="L33" s="8"/>
       <c r="M33" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N33" s="12"/>
       <c r="O33" s="12"/>
@@ -12232,7 +12229,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -12246,7 +12243,7 @@
       <c r="K34" s="12"/>
       <c r="L34" s="13"/>
       <c r="M34" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
@@ -12255,7 +12252,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -12269,7 +12266,7 @@
       <c r="K35" s="12"/>
       <c r="L35" s="14"/>
       <c r="M35" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N35" s="12"/>
       <c r="O35" s="12"/>
@@ -12278,7 +12275,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -12292,7 +12289,7 @@
       <c r="K36" s="12"/>
       <c r="L36" s="8"/>
       <c r="M36" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N36" s="12"/>
       <c r="O36" s="12"/>
@@ -12301,7 +12298,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -12315,7 +12312,7 @@
       <c r="K37" s="12"/>
       <c r="L37" s="13"/>
       <c r="M37" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N37" s="12"/>
       <c r="O37" s="12"/>
@@ -12324,7 +12321,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -12338,7 +12335,7 @@
       <c r="K38" s="12"/>
       <c r="L38" s="14"/>
       <c r="M38" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N38" s="12"/>
       <c r="O38" s="12"/>
@@ -12673,7 +12670,7 @@
   <dimension ref="A1:Q152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12692,7 +12689,7 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D1" s="18"/>
       <c r="E1" s="3"/>
@@ -12752,7 +12749,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="M3" s="4" t="s">
-        <v>82</v>
+        <v>198</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -12832,7 +12829,7 @@
         <v>78</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -12842,14 +12839,14 @@
         <v>79</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
       <c r="L6" s="8"/>
       <c r="M6" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -12858,27 +12855,27 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="13"/>
       <c r="G7" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="13"/>
       <c r="M7" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -12887,27 +12884,27 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="14"/>
       <c r="G8" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="14"/>
       <c r="M8" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
@@ -12916,27 +12913,27 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="8"/>
       <c r="G9" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="8"/>
       <c r="M9" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
@@ -12945,27 +12942,27 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="13"/>
       <c r="G10" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
       <c r="L10" s="13"/>
       <c r="M10" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
@@ -12974,27 +12971,27 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="14"/>
       <c r="G11" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="14"/>
       <c r="M11" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
@@ -13003,27 +13000,27 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="8"/>
       <c r="G12" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="8"/>
       <c r="M12" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
@@ -13032,27 +13029,27 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="13"/>
       <c r="G13" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="13"/>
       <c r="M13" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
@@ -13061,10 +13058,10 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -13077,7 +13074,7 @@
       <c r="K14" s="12"/>
       <c r="L14" s="14"/>
       <c r="M14" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
@@ -13098,7 +13095,7 @@
       <c r="K15" s="12"/>
       <c r="L15" s="8"/>
       <c r="M15" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
@@ -13119,7 +13116,7 @@
       <c r="K16" s="12"/>
       <c r="L16" s="13"/>
       <c r="M16" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
@@ -13140,7 +13137,7 @@
       <c r="K17" s="12"/>
       <c r="L17" s="14"/>
       <c r="M17" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
@@ -13161,7 +13158,7 @@
       <c r="K18" s="12"/>
       <c r="L18" s="8"/>
       <c r="M18" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
@@ -13182,7 +13179,7 @@
       <c r="K19" s="12"/>
       <c r="L19" s="13"/>
       <c r="M19" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
@@ -13203,7 +13200,7 @@
       <c r="K20" s="12"/>
       <c r="L20" s="14"/>
       <c r="M20" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
@@ -13224,7 +13221,7 @@
       <c r="K21" s="12"/>
       <c r="L21" s="8"/>
       <c r="M21" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
@@ -13245,7 +13242,7 @@
       <c r="K22" s="12"/>
       <c r="L22" s="13"/>
       <c r="M22" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
@@ -13266,7 +13263,7 @@
       <c r="K23" s="12"/>
       <c r="L23" s="14"/>
       <c r="M23" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
@@ -13287,7 +13284,7 @@
       <c r="K24" s="12"/>
       <c r="L24" s="8"/>
       <c r="M24" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N24" s="12"/>
       <c r="O24" s="12"/>
@@ -13308,7 +13305,7 @@
       <c r="K25" s="12"/>
       <c r="L25" s="13"/>
       <c r="M25" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
@@ -13329,7 +13326,7 @@
       <c r="K26" s="12"/>
       <c r="L26" s="14"/>
       <c r="M26" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
@@ -13350,7 +13347,7 @@
       <c r="K27" s="12"/>
       <c r="L27" s="8"/>
       <c r="M27" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
@@ -13371,7 +13368,7 @@
       <c r="K28" s="12"/>
       <c r="L28" s="13"/>
       <c r="M28" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
@@ -13392,7 +13389,7 @@
       <c r="K29" s="12"/>
       <c r="L29" s="14"/>
       <c r="M29" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
@@ -13413,7 +13410,7 @@
       <c r="K30" s="12"/>
       <c r="L30" s="8"/>
       <c r="M30" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N30" s="12"/>
       <c r="O30" s="12"/>
@@ -13434,7 +13431,7 @@
       <c r="K31" s="12"/>
       <c r="L31" s="13"/>
       <c r="M31" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
@@ -13455,7 +13452,7 @@
       <c r="K32" s="12"/>
       <c r="L32" s="14"/>
       <c r="M32" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N32" s="12"/>
       <c r="O32" s="12"/>
@@ -13476,7 +13473,7 @@
       <c r="K33" s="12"/>
       <c r="L33" s="8"/>
       <c r="M33" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N33" s="12"/>
       <c r="O33" s="12"/>
@@ -13497,7 +13494,7 @@
       <c r="K34" s="12"/>
       <c r="L34" s="13"/>
       <c r="M34" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
@@ -13518,7 +13515,7 @@
       <c r="K35" s="12"/>
       <c r="L35" s="14"/>
       <c r="M35" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N35" s="12"/>
       <c r="O35" s="12"/>
@@ -13539,7 +13536,7 @@
       <c r="K36" s="12"/>
       <c r="L36" s="8"/>
       <c r="M36" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N36" s="12"/>
       <c r="O36" s="12"/>
@@ -13560,7 +13557,7 @@
       <c r="K37" s="12"/>
       <c r="L37" s="13"/>
       <c r="M37" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N37" s="12"/>
       <c r="O37" s="12"/>
@@ -13581,7 +13578,7 @@
       <c r="K38" s="12"/>
       <c r="L38" s="14"/>
       <c r="M38" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N38" s="12"/>
       <c r="O38" s="12"/>
@@ -13602,7 +13599,7 @@
       <c r="K39" s="12"/>
       <c r="L39" s="8"/>
       <c r="M39" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N39" s="12"/>
       <c r="O39" s="12"/>
@@ -13623,7 +13620,7 @@
       <c r="K40" s="12"/>
       <c r="L40" s="8"/>
       <c r="M40" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N40" s="12"/>
       <c r="O40" s="12"/>
@@ -13644,7 +13641,7 @@
       <c r="K41" s="12"/>
       <c r="L41" s="8"/>
       <c r="M41" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N41" s="12"/>
       <c r="O41" s="12"/>
@@ -13665,7 +13662,7 @@
       <c r="K42" s="12"/>
       <c r="L42" s="8"/>
       <c r="M42" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N42" s="12"/>
       <c r="O42" s="12"/>
@@ -13686,7 +13683,7 @@
       <c r="K43" s="12"/>
       <c r="L43" s="15"/>
       <c r="M43" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N43" s="12"/>
       <c r="O43" s="12"/>
@@ -13707,7 +13704,7 @@
       <c r="K44" s="12"/>
       <c r="L44" s="8"/>
       <c r="M44" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N44" s="12"/>
       <c r="O44" s="12"/>
@@ -13728,7 +13725,7 @@
       <c r="K45" s="12"/>
       <c r="L45" s="8"/>
       <c r="M45" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N45" s="12"/>
       <c r="O45" s="12"/>
@@ -13749,7 +13746,7 @@
       <c r="K46" s="12"/>
       <c r="L46"/>
       <c r="M46" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N46" s="12"/>
       <c r="O46" s="12"/>
@@ -13770,7 +13767,7 @@
       <c r="K47" s="12"/>
       <c r="L47"/>
       <c r="M47" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N47" s="12"/>
       <c r="O47" s="12"/>
@@ -13791,7 +13788,7 @@
       <c r="K48" s="12"/>
       <c r="L48"/>
       <c r="M48" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N48" s="12"/>
       <c r="O48" s="12"/>
@@ -13812,7 +13809,7 @@
       <c r="K49" s="12"/>
       <c r="L49"/>
       <c r="M49" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N49" s="12"/>
       <c r="O49" s="12"/>
@@ -13833,7 +13830,7 @@
       <c r="K50" s="12"/>
       <c r="L50"/>
       <c r="M50" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N50" s="12"/>
       <c r="O50" s="12"/>
@@ -13854,7 +13851,7 @@
       <c r="K51" s="12"/>
       <c r="L51"/>
       <c r="M51" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N51" s="12"/>
       <c r="O51" s="12"/>
@@ -13875,7 +13872,7 @@
       <c r="K52" s="12"/>
       <c r="L52"/>
       <c r="M52" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N52" s="12"/>
       <c r="O52" s="12"/>
@@ -13896,7 +13893,7 @@
       <c r="K53" s="12"/>
       <c r="L53"/>
       <c r="M53" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N53" s="12"/>
       <c r="O53" s="12"/>
@@ -14160,8 +14157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14180,7 +14177,7 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D1" s="18"/>
       <c r="E1" s="3"/>
@@ -14240,7 +14237,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="M3" s="4" t="s">
-        <v>82</v>
+        <v>198</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -14317,7 +14314,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -14325,7 +14322,7 @@
       <c r="E6" s="12"/>
       <c r="F6" s="8"/>
       <c r="G6" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -14340,7 +14337,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -14348,7 +14345,7 @@
       <c r="E7" s="12"/>
       <c r="F7" s="13"/>
       <c r="G7" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -14363,7 +14360,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -14371,7 +14368,7 @@
       <c r="E8" s="12"/>
       <c r="F8" s="14"/>
       <c r="G8" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -14386,7 +14383,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -14394,7 +14391,7 @@
       <c r="E9" s="12"/>
       <c r="F9" s="8"/>
       <c r="G9" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -14409,7 +14406,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
